--- a/configs/gestion-config/assets/excel-ejemplos/motivo.xlsx
+++ b/configs/gestion-config/assets/excel-ejemplos/motivo.xlsx
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Motivo 4</t>
+  </si>
+  <si>
+    <t>Motivo 5</t>
+  </si>
+  <si>
+    <t>turnos</t>
+  </si>
+  <si>
+    <t>Motivo 6</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,6 +466,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>